--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_06_end.xlsx
@@ -744,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mercenary"]I just…don't…
+    <t xml:space="preserve">[name="Mercenary"]I just...don't...
 </t>
   </si>
   <si>
